--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Avp-Avpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Avp-Avpr1a.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3710656666666667</v>
+        <v>0.560697</v>
       </c>
       <c r="N2">
-        <v>1.113197</v>
+        <v>1.682091</v>
       </c>
       <c r="O2">
-        <v>0.03569378523095436</v>
+        <v>0.05296871374736462</v>
       </c>
       <c r="P2">
-        <v>0.03569378523095435</v>
+        <v>0.05296871374736462</v>
       </c>
       <c r="Q2">
-        <v>0.022529994083</v>
+        <v>0.034043839749</v>
       </c>
       <c r="R2">
-        <v>0.202769946747</v>
+        <v>0.306394557741</v>
       </c>
       <c r="S2">
-        <v>0.03569378523095436</v>
+        <v>0.05296871374736462</v>
       </c>
       <c r="T2">
-        <v>0.03569378523095435</v>
+        <v>0.05296871374736462</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>12.38632</v>
       </c>
       <c r="O3">
-        <v>0.3971575973362078</v>
+        <v>0.3900427732288309</v>
       </c>
       <c r="P3">
-        <v>0.3971575973362078</v>
+        <v>0.3900427732288309</v>
       </c>
       <c r="Q3">
         <v>0.25068673048</v>
@@ -632,10 +632,10 @@
         <v>2.25618057432</v>
       </c>
       <c r="S3">
-        <v>0.3971575973362078</v>
+        <v>0.3900427732288309</v>
       </c>
       <c r="T3">
-        <v>0.3971575973362078</v>
+        <v>0.3900427732288309</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>17.687901</v>
       </c>
       <c r="O4">
-        <v>0.5671486174328377</v>
+        <v>0.5569885130238045</v>
       </c>
       <c r="P4">
-        <v>0.5671486174328378</v>
+        <v>0.5569885130238045</v>
       </c>
       <c r="Q4">
         <v>0.357985428339</v>
@@ -694,10 +694,10 @@
         <v>3.221868855051</v>
       </c>
       <c r="S4">
-        <v>0.5671486174328377</v>
+        <v>0.5569885130238045</v>
       </c>
       <c r="T4">
-        <v>0.5671486174328378</v>
+        <v>0.5569885130238045</v>
       </c>
     </row>
   </sheetData>
